--- a/Vergence/TableComplex.xlsx
+++ b/Vergence/TableComplex.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
-    <sheet name="BootstrapSaccadesComplexModel" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="Individual Cells" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
   <si>
     <t>neuron</t>
   </si>
@@ -1198,10 +1199,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="1">
+        <v>34.12784525468085</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.34883395340687873</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.1186325932743044</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.6872191719388772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25.946376855978482</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.27297328987282865</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.0179826709044566</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.1657856220773248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
